--- a/map/1.4.xlsx
+++ b/map/1.4.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,6 +66,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -94,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -102,6 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +392,7 @@
   <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +775,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="6"/>
+      <c r="V8" s="7"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="1"/>
@@ -808,7 +815,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="6"/>
+      <c r="V9" s="7"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="1"/>
@@ -848,7 +855,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="6"/>
+      <c r="V10" s="7"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="1"/>
@@ -888,7 +895,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="6"/>
+      <c r="V11" s="7"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="1"/>
@@ -928,7 +935,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="6"/>
+      <c r="V12" s="7"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="1"/>
